--- a/cwd_respiration/respiration_soil_total meta_data.xlsx
+++ b/cwd_respiration/respiration_soil_total meta_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Side_project\african_data_workshop\General\Dataset examples\Total_soil_respiration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Side_project\african_data_workshop\gem_code_examples\cwd_respiration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F9F1EB-DCFE-4610-8301-2B4D86415247}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C088C83B-B97B-427F-A45E-095B3364631E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="-18684" windowWidth="21600" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-168" yWindow="-19380" windowWidth="25332" windowHeight="17616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="respiration_soil_total meta_dat" sheetId="1" r:id="rId1"/>
@@ -103,9 +103,6 @@
     <t>This is actually input_E (see column E in the table) (one of the EGM output)</t>
   </si>
   <si>
-    <t>see column D, should be relative humidity</t>
-  </si>
-  <si>
     <t>CO2 concentration , unit in ppm, this is the most important row for flux calculation</t>
   </si>
   <si>
@@ -113,6 +110,9 @@
   </si>
   <si>
     <t>This one could be used if you measure the same point (collar) twice, if you measure every point(collar) once, this should all be one.</t>
+  </si>
+  <si>
+    <t>see column D, should be relative change in co2 ppm</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1008,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,7 +1045,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1073,7 +1073,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1091,7 +1091,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1099,7 +1099,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
